--- a/face_other_model_optimization.xlsx
+++ b/face_other_model_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Project 4 local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DAF0B9-D06E-433A-9098-9D2BFE77EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E17C18-D0D6-432A-B0D5-038C305061B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD8230CB-9583-4BED-A787-320CD1E24D8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Model Name</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Model fails on evaluation.</t>
+  </si>
+  <si>
+    <t>cnn_2D</t>
+  </si>
+  <si>
+    <t>Conv2D, F:32, krnl:2, relu</t>
+  </si>
+  <si>
+    <t>Batch Normalization</t>
+  </si>
+  <si>
+    <t>Dropout 0.25</t>
+  </si>
+  <si>
+    <t>Conv2D, F:64, krnl:2, relu</t>
+  </si>
+  <si>
+    <t>Dense, 128, relu</t>
+  </si>
+  <si>
+    <t>Dropout 0.5</t>
+  </si>
+  <si>
+    <t>Dense, 64, relu</t>
   </si>
 </sst>
 </file>
@@ -174,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -365,11 +392,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,42 +437,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -452,6 +454,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,74 +812,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478E24B-505E-4926-95BF-D6609840526E}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:AA129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="25" width="11" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="19" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="U1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="W1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="X1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="Y1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="Z1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="10">
         <v>1</v>
       </c>
@@ -862,17 +912,22 @@
       <c r="L2" s="9">
         <v>9</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="18"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="U2" s="20"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>11</v>
       </c>
@@ -895,36 +950,41 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="7">
+      <c r="T3" s="7">
         <v>32</v>
       </c>
-      <c r="P3" s="7">
+      <c r="U3" s="7">
         <v>20</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="V3" s="7">
         <v>0.26</v>
       </c>
-      <c r="R3" s="7">
+      <c r="W3" s="7">
         <v>0.24</v>
       </c>
-      <c r="S3" s="7">
+      <c r="X3" s="7">
         <v>0.92</v>
       </c>
-      <c r="T3" s="24">
+      <c r="Y3" s="12">
         <v>0.91</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="Z3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>12</v>
       </c>
@@ -947,34 +1007,39 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7">
+      <c r="T4" s="7">
         <v>32</v>
       </c>
-      <c r="P4" s="7">
+      <c r="U4" s="7">
         <v>20</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="V4" s="7">
         <v>0.26</v>
       </c>
-      <c r="R4" s="7">
+      <c r="W4" s="7">
         <v>0.24</v>
       </c>
-      <c r="S4" s="7">
+      <c r="X4" s="7">
         <v>0.92</v>
       </c>
-      <c r="T4" s="24">
+      <c r="Y4" s="12">
         <v>0.91</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -994,11 +1059,16 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>21</v>
       </c>
@@ -1033,36 +1103,41 @@
         <v>10</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="7">
+      <c r="T6" s="7">
         <v>32</v>
       </c>
-      <c r="P6" s="7">
+      <c r="U6" s="7">
         <v>10</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="V6" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R6" s="8">
+      <c r="W6" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="X6" s="7">
         <v>0.97299999999999998</v>
       </c>
-      <c r="T6" s="24">
+      <c r="Y6" s="12">
         <v>0.98</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="Z6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>22</v>
       </c>
@@ -1099,57 +1174,120 @@
       <c r="L7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="7">
+      <c r="T7" s="7">
         <v>32</v>
       </c>
-      <c r="P7" s="7">
+      <c r="U7" s="7">
         <v>20</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="V7" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="R7" s="7">
+      <c r="W7" s="7">
         <v>5.45E-2</v>
       </c>
-      <c r="S7" s="7">
+      <c r="X7" s="7">
         <v>0.98799999999999999</v>
       </c>
-      <c r="T7" s="24">
+      <c r="Y7" s="12">
         <v>0.98180000000000001</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="7">
+        <v>64</v>
+      </c>
+      <c r="U8" s="7">
+        <v>5</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0.1426</v>
+      </c>
+      <c r="W8" s="7">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1169,10 +1307,15 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1192,10 +1335,15 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1215,10 +1363,15 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1238,10 +1391,15 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1261,10 +1419,15 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1284,10 +1447,15 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1307,10 +1475,15 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1330,10 +1503,15 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1353,10 +1531,15 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1376,10 +1559,15 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1399,10 +1587,15 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1422,10 +1615,15 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1445,10 +1643,15 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1468,10 +1671,15 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1491,10 +1699,15 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1514,8 +1727,13 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1535,8 +1753,13 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1556,8 +1779,13 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1577,8 +1805,13 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1598,8 +1831,13 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1619,8 +1857,13 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1640,8 +1883,13 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1653,8 +1901,13 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1666,8 +1919,13 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1679,8 +1937,13 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1692,8 +1955,13 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1705,8 +1973,13 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1718,8 +1991,13 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1731,8 +2009,13 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1744,8 +2027,13 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1757,8 +2045,13 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1770,8 +2063,13 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1783,8 +2081,13 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1796,8 +2099,13 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1809,8 +2117,13 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1822,8 +2135,13 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1835,8 +2153,13 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1848,8 +2171,13 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1861,8 +2189,13 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1874,8 +2207,13 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1887,8 +2225,13 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1900,8 +2243,13 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1913,8 +2261,13 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1926,8 +2279,13 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1939,8 +2297,13 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1952,8 +2315,13 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1965,8 +2333,13 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1978,8 +2351,13 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1991,8 +2369,13 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2004,8 +2387,13 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2017,8 +2405,13 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2030,8 +2423,13 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2043,8 +2441,13 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2056,8 +2459,13 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2069,8 +2477,13 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2082,8 +2495,13 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2095,8 +2513,13 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2108,8 +2531,13 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2121,8 +2549,13 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2134,8 +2567,13 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2147,8 +2585,13 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2160,8 +2603,13 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2173,8 +2621,13 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2186,8 +2639,13 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2199,8 +2657,13 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2212,8 +2675,13 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2225,8 +2693,13 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2238,8 +2711,13 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2251,8 +2729,13 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2264,8 +2747,13 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2277,8 +2765,13 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2290,8 +2783,13 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2303,8 +2801,13 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2316,8 +2819,13 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2329,8 +2837,13 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2342,8 +2855,13 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2355,8 +2873,13 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2368,8 +2891,13 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2381,8 +2909,13 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2394,8 +2927,13 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2407,8 +2945,13 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2420,8 +2963,13 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2433,8 +2981,13 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2446,8 +2999,13 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2459,8 +3017,13 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2472,8 +3035,13 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2485,8 +3053,13 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2498,8 +3071,13 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2511,8 +3089,13 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2524,8 +3107,13 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2537,8 +3125,13 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2550,8 +3143,13 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2563,8 +3161,13 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2576,8 +3179,13 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2589,8 +3197,13 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2602,8 +3215,13 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2615,8 +3233,13 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2628,8 +3251,13 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2641,8 +3269,13 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2654,8 +3287,13 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2667,8 +3305,13 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2680,8 +3323,13 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2693,8 +3341,13 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2706,8 +3359,13 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2719,8 +3377,13 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2732,8 +3395,13 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2745,8 +3413,13 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2758,8 +3431,13 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2771,8 +3449,13 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2784,8 +3467,13 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2797,8 +3485,13 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2810,8 +3503,13 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2823,8 +3521,13 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2836,8 +3539,13 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2849,8 +3557,13 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -2862,8 +3575,13 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2875,8 +3593,13 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2888,22 +3611,27 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U1:U2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
